--- a/gears_db/data/outputs/emissions_nigeria_2018.xlsx
+++ b/gears_db/data/outputs/emissions_nigeria_2018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t xml:space="preserve">9999_Undetermined_9999_Undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -2015,31 +2018,34 @@
       <c r="HZ1" t="s">
         <v>233</v>
       </c>
+      <c r="IA1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2268,34 +2274,35 @@
       <c r="HY2" t="n">
         <v>1.037232</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2"/>
+      <c r="IA2" t="n">
         <v>1.037232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" t="n">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" t="s">
         <v>241</v>
-      </c>
-      <c r="H3" t="s">
-        <v>240</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2524,34 +2531,35 @@
       <c r="HY3" t="n">
         <v>1.308888</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3"/>
+      <c r="IA3" t="n">
         <v>1.308888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C4" t="n">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -2780,34 +2788,35 @@
       <c r="HY4" t="n">
         <v>216.186620328</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4"/>
+      <c r="IA4" t="n">
         <v>216.186620328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" t="n">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
         <v>242</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>241</v>
-      </c>
-      <c r="H5" t="s">
-        <v>240</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -3036,34 +3045,35 @@
       <c r="HY5" t="n">
         <v>40.9210388478</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5"/>
+      <c r="IA5" t="n">
         <v>40.9210388478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C6" t="n">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3294,34 +3304,35 @@
       <c r="HY6" t="n">
         <v>1465.66492569</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6"/>
+      <c r="IA6" t="n">
         <v>2008.971557712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C7" t="n">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -3552,34 +3563,35 @@
       <c r="HY7" t="n">
         <v>1.5906441054</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7"/>
+      <c r="IA7" t="n">
         <v>2.18027920992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C8" t="n">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" t="s">
         <v>241</v>
-      </c>
-      <c r="H8" t="s">
-        <v>240</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3810,34 +3822,35 @@
       <c r="HY8" t="n">
         <v>3.01086205665</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8"/>
+      <c r="IA8" t="n">
         <v>4.12695707592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C9" t="n">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -4068,34 +4081,35 @@
       <c r="HY9" t="n">
         <v>651.939687725227</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9"/>
+      <c r="IA9" t="n">
         <v>842.681203532755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C10" t="n">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" t="s">
         <v>241</v>
-      </c>
-      <c r="H10" t="s">
-        <v>240</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -4326,34 +4340,35 @@
       <c r="HY10" t="n">
         <v>822.685796415167</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10"/>
+      <c r="IA10" t="n">
         <v>1063.38342350562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C11" t="n">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -4584,34 +4599,35 @@
       <c r="HY11" t="n">
         <v>12249.52120275</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11"/>
+      <c r="IA11" t="n">
         <v>12312.05900925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C12" t="n">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -4842,34 +4858,35 @@
       <c r="HY12" t="n">
         <v>13.88609691</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12"/>
+      <c r="IA12" t="n">
         <v>13.95698997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" t="n">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" t="s">
         <v>241</v>
-      </c>
-      <c r="H13" t="s">
-        <v>240</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -5100,34 +5117,35 @@
       <c r="HY13" t="n">
         <v>26.2843977225</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13"/>
+      <c r="IA13" t="n">
         <v>26.4185881575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C14" t="n">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -5356,34 +5374,35 @@
       <c r="HY14" t="n">
         <v>1513.247522913</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14"/>
+      <c r="IA14" t="n">
         <v>1513.247522913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C15" t="n">
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -5612,34 +5631,35 @@
       <c r="HY15" t="n">
         <v>0.44090458524</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15"/>
+      <c r="IA15" t="n">
         <v>0.44090458524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" t="s">
         <v>241</v>
-      </c>
-      <c r="H16" t="s">
-        <v>240</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -5868,34 +5888,35 @@
       <c r="HY16" t="n">
         <v>6.259270451175</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16"/>
+      <c r="IA16" t="n">
         <v>6.259270451175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
         <v>2018</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -6121,37 +6142,38 @@
       <c r="HV17"/>
       <c r="HW17"/>
       <c r="HX17"/>
-      <c r="HY17" t="n">
+      <c r="HY17"/>
+      <c r="HZ17" t="n">
         <v>607.908418975</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="IA17" t="n">
         <v>607.908418975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" t="n">
         <v>2018</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -6377,37 +6399,38 @@
       <c r="HV18"/>
       <c r="HW18"/>
       <c r="HX18"/>
-      <c r="HY18" t="n">
+      <c r="HY18"/>
+      <c r="HZ18" t="n">
         <v>0.7141861146</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="IA18" t="n">
         <v>0.7141861146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="n">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" t="s">
         <v>241</v>
-      </c>
-      <c r="H19" t="s">
-        <v>240</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -6633,37 +6656,38 @@
       <c r="HV19"/>
       <c r="HW19"/>
       <c r="HX19"/>
-      <c r="HY19" t="n">
+      <c r="HY19"/>
+      <c r="HZ19" t="n">
         <v>1.35185228835</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="IA19" t="n">
         <v>1.35185228835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" t="n">
         <v>2018</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -6894,34 +6918,35 @@
       <c r="HY20" t="n">
         <v>475.402129615</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20"/>
+      <c r="IA20" t="n">
         <v>518.101319095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -7152,34 +7177,35 @@
       <c r="HY21" t="n">
         <v>0.2109549862</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21"/>
+      <c r="IA21" t="n">
         <v>0.2299023286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" t="n">
         <v>2018</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" t="s">
         <v>241</v>
-      </c>
-      <c r="H22" t="s">
-        <v>240</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -7410,34 +7436,35 @@
       <c r="HY22" t="n">
         <v>0.199653826225</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22"/>
+      <c r="IA22" t="n">
         <v>0.217586132425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23" t="n">
         <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -7666,34 +7693,35 @@
       <c r="HY23" t="n">
         <v>41136.624086481</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23"/>
+      <c r="IA23" t="n">
         <v>41136.624086481</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" t="n">
         <v>2018</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -7922,34 +7950,35 @@
       <c r="HY24" t="n">
         <v>49.86257465028</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24"/>
+      <c r="IA24" t="n">
         <v>49.86257465028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" t="s">
         <v>241</v>
-      </c>
-      <c r="H25" t="s">
-        <v>240</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -8178,34 +8207,35 @@
       <c r="HY25" t="n">
         <v>94.38273058803</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25"/>
+      <c r="IA25" t="n">
         <v>94.38273058803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C26" t="n">
         <v>2018</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -8442,34 +8472,35 @@
       <c r="HY26" t="n">
         <v>6224.3516049</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26"/>
+      <c r="IA26" t="n">
         <v>35323.594449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" t="n">
         <v>2018</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -8706,34 +8737,35 @@
       <c r="HY27" t="n">
         <v>3.106628252</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27"/>
+      <c r="IA27" t="n">
         <v>17.63031452</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" t="n">
         <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" t="s">
         <v>241</v>
-      </c>
-      <c r="H28" t="s">
-        <v>240</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -8970,34 +9002,35 @@
       <c r="HY28" t="n">
         <v>2.9402017385</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28"/>
+      <c r="IA28" t="n">
         <v>16.685833385</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" t="n">
         <v>2018</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -9226,34 +9259,35 @@
       <c r="HY29" t="n">
         <v>1489.627634418</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29"/>
+      <c r="IA29" t="n">
         <v>1489.627634418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C30" t="n">
         <v>2018</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -9482,34 +9516,35 @@
       <c r="HY30" t="n">
         <v>0.44090458524</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30"/>
+      <c r="IA30" t="n">
         <v>0.44090458524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" t="n">
         <v>2018</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" t="s">
         <v>241</v>
-      </c>
-      <c r="H31" t="s">
-        <v>240</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -9738,34 +9773,35 @@
       <c r="HY31" t="n">
         <v>6.259270451175</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31"/>
+      <c r="IA31" t="n">
         <v>6.259270451175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" t="n">
         <v>2018</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -9994,34 +10030,35 @@
       <c r="HW32"/>
       <c r="HX32"/>
       <c r="HY32"/>
-      <c r="HZ32" t="n">
+      <c r="HZ32"/>
+      <c r="IA32" t="n">
         <v>22.991947875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" t="n">
         <v>2018</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -10250,34 +10287,35 @@
       <c r="HW33"/>
       <c r="HX33"/>
       <c r="HY33"/>
-      <c r="HZ33" t="n">
+      <c r="HZ33"/>
+      <c r="IA33" t="n">
         <v>0.0198084474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n">
         <v>2018</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" t="s">
         <v>241</v>
-      </c>
-      <c r="H34" t="s">
-        <v>240</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -10506,34 +10544,35 @@
       <c r="HW34"/>
       <c r="HX34"/>
       <c r="HY34"/>
-      <c r="HZ34" t="n">
+      <c r="HZ34"/>
+      <c r="IA34" t="n">
         <v>0.03749456115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C35" t="n">
         <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -10762,34 +10801,35 @@
       <c r="HW35"/>
       <c r="HX35"/>
       <c r="HY35"/>
-      <c r="HZ35" t="n">
+      <c r="HZ35"/>
+      <c r="IA35" t="n">
         <v>71.36811072</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C36" t="n">
         <v>2018</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -11018,34 +11058,35 @@
       <c r="HW36"/>
       <c r="HX36"/>
       <c r="HY36"/>
-      <c r="HZ36" t="n">
+      <c r="HZ36"/>
+      <c r="IA36" t="n">
         <v>0.0346928316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" t="n">
         <v>2018</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" t="s">
         <v>241</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
@@ -11274,34 +11315,35 @@
       <c r="HW37"/>
       <c r="HX37"/>
       <c r="HY37"/>
-      <c r="HZ37" t="n">
+      <c r="HZ37"/>
+      <c r="IA37" t="n">
         <v>0.03283428705</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38" t="n">
         <v>2018</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -11530,34 +11572,35 @@
       <c r="HW38"/>
       <c r="HX38"/>
       <c r="HY38"/>
-      <c r="HZ38" t="n">
+      <c r="HZ38"/>
+      <c r="IA38" t="n">
         <v>13.967598995035</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" t="n">
         <v>2018</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -11786,34 +11829,35 @@
       <c r="HW39"/>
       <c r="HX39"/>
       <c r="HY39"/>
-      <c r="HZ39" t="n">
+      <c r="HZ39"/>
+      <c r="IA39" t="n">
         <v>36371.48732</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C40" t="n">
         <v>2018</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
@@ -12042,34 +12086,35 @@
       <c r="HW40"/>
       <c r="HX40"/>
       <c r="HY40"/>
-      <c r="HZ40" t="n">
+      <c r="HZ40"/>
+      <c r="IA40" t="n">
         <v>11604.089555057</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C41" t="n">
         <v>2018</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" t="s">
         <v>241</v>
-      </c>
-      <c r="H41" t="s">
-        <v>240</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -12298,34 +12343,35 @@
       <c r="HW41"/>
       <c r="HX41"/>
       <c r="HY41"/>
-      <c r="HZ41" t="n">
+      <c r="HZ41"/>
+      <c r="IA41" t="n">
         <v>140.56064757</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" t="n">
         <v>2018</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -12554,34 +12600,35 @@
       <c r="HW42"/>
       <c r="HX42"/>
       <c r="HY42"/>
-      <c r="HZ42" t="n">
+      <c r="HZ42"/>
+      <c r="IA42" t="n">
         <v>15596.944439247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C43" t="n">
         <v>2018</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
@@ -12810,34 +12857,35 @@
       <c r="HW43"/>
       <c r="HX43"/>
       <c r="HY43"/>
-      <c r="HZ43" t="n">
+      <c r="HZ43"/>
+      <c r="IA43" t="n">
         <v>92928.2661179208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C44" t="n">
         <v>2018</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" t="s">
         <v>241</v>
-      </c>
-      <c r="H44" t="s">
-        <v>240</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
@@ -13066,34 +13114,35 @@
       <c r="HW44"/>
       <c r="HX44"/>
       <c r="HY44"/>
-      <c r="HZ44" t="n">
+      <c r="HZ44"/>
+      <c r="IA44" t="n">
         <v>57.3251271197975</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" t="n">
         <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -13322,34 +13371,35 @@
       <c r="HW45"/>
       <c r="HX45"/>
       <c r="HY45"/>
-      <c r="HZ45" t="n">
+      <c r="HZ45"/>
+      <c r="IA45" t="n">
         <v>8747.606714</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C46" t="n">
         <v>2018</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -13578,34 +13628,35 @@
       <c r="HW46"/>
       <c r="HX46"/>
       <c r="HY46"/>
-      <c r="HZ46" t="n">
+      <c r="HZ46"/>
+      <c r="IA46" t="n">
         <v>9.4325859499204</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C47" t="n">
         <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -13834,34 +13885,35 @@
       <c r="HW47"/>
       <c r="HX47"/>
       <c r="HY47"/>
-      <c r="HZ47" t="n">
+      <c r="HZ47"/>
+      <c r="IA47" t="n">
         <v>103.882563865</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" t="n">
         <v>2018</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -14090,34 +14142,35 @@
       <c r="HW48"/>
       <c r="HX48"/>
       <c r="HY48"/>
-      <c r="HZ48" t="n">
+      <c r="HZ48"/>
+      <c r="IA48" t="n">
         <v>2067.80890559</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" t="n">
         <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -14346,34 +14399,35 @@
       <c r="HW49"/>
       <c r="HX49"/>
       <c r="HY49"/>
-      <c r="HZ49" t="n">
+      <c r="HZ49"/>
+      <c r="IA49" t="n">
         <v>2.79216</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C50" t="n">
         <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -14602,34 +14656,35 @@
       <c r="HW50"/>
       <c r="HX50"/>
       <c r="HY50"/>
-      <c r="HZ50" t="n">
+      <c r="HZ50"/>
+      <c r="IA50" t="n">
         <v>26.77064</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C51" t="n">
         <v>2018</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -14856,34 +14911,35 @@
       <c r="HW51"/>
       <c r="HX51"/>
       <c r="HY51"/>
-      <c r="HZ51" t="n">
+      <c r="HZ51"/>
+      <c r="IA51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C52" t="n">
         <v>2018</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -15112,34 +15168,35 @@
       <c r="HW52"/>
       <c r="HX52"/>
       <c r="HY52"/>
-      <c r="HZ52" t="n">
+      <c r="HZ52"/>
+      <c r="IA52" t="n">
         <v>539.6753417721</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C53" t="n">
         <v>2018</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -15368,34 +15425,35 @@
       <c r="HW53"/>
       <c r="HX53"/>
       <c r="HY53"/>
-      <c r="HZ53" t="n">
+      <c r="HZ53"/>
+      <c r="IA53" t="n">
         <v>8419.323442671</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
         <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G54" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" t="s">
         <v>241</v>
-      </c>
-      <c r="H54" t="s">
-        <v>240</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -15624,34 +15682,35 @@
       <c r="HW54"/>
       <c r="HX54"/>
       <c r="HY54"/>
-      <c r="HZ54" t="n">
+      <c r="HZ54"/>
+      <c r="IA54" t="n">
         <v>0.570976315855</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C55" t="n">
         <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -15880,34 +15939,35 @@
       <c r="HW55"/>
       <c r="HX55"/>
       <c r="HY55"/>
-      <c r="HZ55" t="n">
+      <c r="HZ55"/>
+      <c r="IA55" t="n">
         <v>46.5497493</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" t="n">
         <v>2018</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -16136,34 +16196,35 @@
       <c r="HW56"/>
       <c r="HX56"/>
       <c r="HY56"/>
-      <c r="HZ56" t="n">
+      <c r="HZ56"/>
+      <c r="IA56" t="n">
         <v>593.845</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" t="n">
         <v>2018</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -16398,34 +16459,35 @@
       <c r="HW57"/>
       <c r="HX57"/>
       <c r="HY57"/>
-      <c r="HZ57" t="n">
+      <c r="HZ57"/>
+      <c r="IA57" t="n">
         <v>37062.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C58" t="n">
         <v>2018</v>
       </c>
       <c r="D58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
+        <v>242</v>
+      </c>
+      <c r="H58" t="s">
         <v>241</v>
-      </c>
-      <c r="H58" t="s">
-        <v>240</v>
       </c>
       <c r="I58"/>
       <c r="J58"/>
@@ -16664,34 +16726,35 @@
       <c r="HW58"/>
       <c r="HX58"/>
       <c r="HY58"/>
-      <c r="HZ58" t="n">
+      <c r="HZ58"/>
+      <c r="IA58" t="n">
         <v>1144.4555</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" t="n">
         <v>2018</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
+        <v>242</v>
+      </c>
+      <c r="H59" t="s">
         <v>241</v>
-      </c>
-      <c r="H59" t="s">
-        <v>240</v>
       </c>
       <c r="I59"/>
       <c r="J59"/>
@@ -16930,34 +16993,35 @@
       <c r="HW59"/>
       <c r="HX59"/>
       <c r="HY59"/>
-      <c r="HZ59" t="n">
+      <c r="HZ59"/>
+      <c r="IA59" t="n">
         <v>1150.0735</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C60" t="n">
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I60"/>
       <c r="J60"/>
@@ -17196,34 +17260,35 @@
       <c r="HW60"/>
       <c r="HX60"/>
       <c r="HY60"/>
-      <c r="HZ60" t="n">
+      <c r="HZ60"/>
+      <c r="IA60" t="n">
         <v>1724.1224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C61" t="n">
         <v>2018</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I61"/>
       <c r="J61"/>
@@ -17452,34 +17517,35 @@
       </c>
       <c r="HX61"/>
       <c r="HY61"/>
-      <c r="HZ61" t="n">
+      <c r="HZ61"/>
+      <c r="IA61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C62" t="n">
         <v>2018</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
@@ -17708,34 +17774,35 @@
       </c>
       <c r="HX62"/>
       <c r="HY62"/>
-      <c r="HZ62" t="n">
+      <c r="HZ62"/>
+      <c r="IA62" t="n">
         <v>45991.2677</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C63" t="n">
         <v>2018</v>
       </c>
       <c r="D63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -17964,34 +18031,35 @@
       </c>
       <c r="HX63"/>
       <c r="HY63"/>
-      <c r="HZ63" t="n">
+      <c r="HZ63"/>
+      <c r="IA63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C64" t="n">
         <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
@@ -18220,34 +18288,35 @@
       </c>
       <c r="HX64"/>
       <c r="HY64"/>
-      <c r="HZ64" t="n">
+      <c r="HZ64"/>
+      <c r="IA64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C65" t="n">
         <v>2018</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
@@ -18476,34 +18545,35 @@
       </c>
       <c r="HX65"/>
       <c r="HY65"/>
-      <c r="HZ65" t="n">
+      <c r="HZ65"/>
+      <c r="IA65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C66" t="n">
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -18732,34 +18802,35 @@
       </c>
       <c r="HX66"/>
       <c r="HY66"/>
-      <c r="HZ66" t="n">
+      <c r="HZ66"/>
+      <c r="IA66" t="n">
         <v>36.4868</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C67" t="n">
         <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" t="s">
         <v>241</v>
-      </c>
-      <c r="H67" t="s">
-        <v>240</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
@@ -18988,34 +19059,35 @@
       </c>
       <c r="HX67"/>
       <c r="HY67"/>
-      <c r="HZ67" t="n">
+      <c r="HZ67"/>
+      <c r="IA67" t="n">
         <v>31.535</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C68" t="n">
         <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I68" t="n">
         <v>494.5136</v>
@@ -19250,34 +19322,35 @@
       <c r="HW68"/>
       <c r="HX68"/>
       <c r="HY68"/>
-      <c r="HZ68" t="n">
+      <c r="HZ68"/>
+      <c r="IA68" t="n">
         <v>669.4632</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" t="n">
         <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" t="s">
         <v>241</v>
-      </c>
-      <c r="H69" t="s">
-        <v>240</v>
       </c>
       <c r="I69" t="n">
         <v>121.3435</v>
@@ -19512,34 +19585,35 @@
       <c r="HW69"/>
       <c r="HX69"/>
       <c r="HY69"/>
-      <c r="HZ69" t="n">
+      <c r="HZ69"/>
+      <c r="IA69" t="n">
         <v>164.247</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C70" t="n">
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -19768,34 +19842,35 @@
         <v>1078.8708</v>
       </c>
       <c r="HY70"/>
-      <c r="HZ70" t="n">
+      <c r="HZ70"/>
+      <c r="IA70" t="n">
         <v>1078.8708</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" t="n">
         <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G71" t="s">
+        <v>242</v>
+      </c>
+      <c r="H71" t="s">
         <v>241</v>
-      </c>
-      <c r="H71" t="s">
-        <v>240</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -20024,34 +20099,35 @@
         <v>932.2965</v>
       </c>
       <c r="HY71"/>
-      <c r="HZ71" t="n">
+      <c r="HZ71"/>
+      <c r="IA71" t="n">
         <v>932.2965</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C72" t="n">
         <v>2018</v>
       </c>
       <c r="D72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H72" t="s">
         <v>241</v>
-      </c>
-      <c r="H72" t="s">
-        <v>240</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
@@ -20280,34 +20356,35 @@
       <c r="HW72"/>
       <c r="HX72"/>
       <c r="HY72"/>
-      <c r="HZ72" t="n">
+      <c r="HZ72"/>
+      <c r="IA72" t="n">
         <v>2407.9225</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C73" t="n">
         <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" t="s">
         <v>241</v>
-      </c>
-      <c r="H73" t="s">
-        <v>240</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
@@ -20536,34 +20613,35 @@
         <v>0</v>
       </c>
       <c r="HY73"/>
-      <c r="HZ73" t="n">
+      <c r="HZ73"/>
+      <c r="IA73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C74" t="n">
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" t="s">
         <v>241</v>
-      </c>
-      <c r="H74" t="s">
-        <v>240</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -20802,34 +20880,35 @@
       <c r="HW74"/>
       <c r="HX74"/>
       <c r="HY74"/>
-      <c r="HZ74" t="n">
+      <c r="HZ74"/>
+      <c r="IA74" t="n">
         <v>19405.42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C75" t="n">
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
@@ -21058,34 +21137,35 @@
       <c r="HW75"/>
       <c r="HX75"/>
       <c r="HY75"/>
-      <c r="HZ75" t="n">
+      <c r="HZ75"/>
+      <c r="IA75" t="n">
         <v>12462.576</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C76" t="n">
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
+        <v>242</v>
+      </c>
+      <c r="H76" t="s">
         <v>241</v>
-      </c>
-      <c r="H76" t="s">
-        <v>240</v>
       </c>
       <c r="I76" t="n">
         <v>556.659</v>
@@ -21326,34 +21406,35 @@
       <c r="HW76"/>
       <c r="HX76"/>
       <c r="HY76"/>
-      <c r="HZ76" t="n">
+      <c r="HZ76"/>
+      <c r="IA76" t="n">
         <v>2152.966</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" t="n">
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -21582,34 +21663,35 @@
       <c r="HW77"/>
       <c r="HX77"/>
       <c r="HY77"/>
-      <c r="HZ77" t="n">
+      <c r="HZ77"/>
+      <c r="IA77" t="n">
         <v>13585.7316032528</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C78" t="n">
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -21838,34 +21920,35 @@
       <c r="HW78"/>
       <c r="HX78"/>
       <c r="HY78"/>
-      <c r="HZ78" t="n">
+      <c r="HZ78"/>
+      <c r="IA78" t="n">
         <v>151.4856</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C79" t="n">
         <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
@@ -22094,34 +22177,35 @@
       <c r="HW79"/>
       <c r="HX79"/>
       <c r="HY79"/>
-      <c r="HZ79" t="n">
+      <c r="HZ79"/>
+      <c r="IA79" t="n">
         <v>12013.0905753432</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" t="n">
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" t="s">
         <v>241</v>
-      </c>
-      <c r="H80" t="s">
-        <v>240</v>
       </c>
       <c r="I80"/>
       <c r="J80"/>
@@ -22350,34 +22434,35 @@
       <c r="HW80"/>
       <c r="HX80"/>
       <c r="HY80"/>
-      <c r="HZ80" t="n">
+      <c r="HZ80"/>
+      <c r="IA80" t="n">
         <v>1955.86029935237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C81" t="n">
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" t="s">
         <v>241</v>
-      </c>
-      <c r="H81" t="s">
-        <v>240</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
@@ -22606,7 +22691,8 @@
       <c r="HW81"/>
       <c r="HX81"/>
       <c r="HY81"/>
-      <c r="HZ81" t="n">
+      <c r="HZ81"/>
+      <c r="IA81" t="n">
         <v>3556.36366010438</v>
       </c>
     </row>
